--- a/categories.xlsx
+++ b/categories.xlsx
@@ -14,201 +14,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>UICard-fc546e6554c9acdb href</t>
   </si>
   <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23FRUITS&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Fruits</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23LEGUMES&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Légumes</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23CREMERIE_OEUFS&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Crèmerie &amp; Oeufs</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23VIANDES_POISSONS&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Viandes &amp; Poissons</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23CHARCUTERIE&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Charcuterie</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23BOULANGERIE&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Boulangerie &amp; Pâtisserie</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23YAOURTS_DESSERTS&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Yaourts &amp; Desserts</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23FROMAGES&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Fromages</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23REPAS_EXPRESS&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Traiteur &amp; Repas Express</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23SURGELE&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Oeufs, produits laitiers</t>
+  </si>
+  <si>
+    <t>Fruits, légumes</t>
+  </si>
+  <si>
+    <t>Boucherie, volaille, poissonnerie</t>
+  </si>
+  <si>
+    <t>Charcuterie, traiteur, pain</t>
   </si>
   <si>
     <t>Surgelés</t>
   </si>
   <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23PETIT_DEJEUNER&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Petit déjeuner</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23BOISSONS_CHAUDES&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Boissons chaudes</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23BISCUITS_GATEAUX&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Biscuits &amp; Gâteaux</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23CHOCOLATS_BONBONS&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Chocolats &amp; Bonbons</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23CHIPS_APERO&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Chips &amp; Apéro</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23PATES_RIZ_LEGUMES_SECS&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Pâtes, Riz &amp; Légumes Secs</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23CONSERVES_SOUPES&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Conserves &amp; Soupes</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23HUILES_SAUCES_EPICES&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Huiles, Sauces &amp; Epices</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23SUCRES_FARINES_AIDE_PATISSERIE&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Sucres, Farines &amp; Aides Pâtisserie</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23EAUX&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Eaux</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23BOISSONS_SODAS&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Boissons, Sodas &amp; Colas</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23APERITIFS_SPIRITUEUX&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Apéritifs &amp; Alcools</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23BIERES_CIDRES&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Bières &amp; Cidres</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23VINS_CHAMPAGNES&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Vins &amp; Champagnes</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23HYGIENE_BEAUTE&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Hygiène &amp; Beauté</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23PARAPHARMACIE&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Parapharmacie</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23ENTRETIEN_NETTOYAGE&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Entretien &amp; Nettoyage</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23ANIMALERIE&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Animalerie</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23BEBE&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
+    <t>Epicerie sucrée</t>
+  </si>
+  <si>
+    <t>Epicerie salée</t>
+  </si>
+  <si>
+    <t>Boissons sans alcool</t>
+  </si>
+  <si>
+    <t>Hygiène, beauté, parapharmacie</t>
+  </si>
+  <si>
+    <t>Entretien maison</t>
+  </si>
+  <si>
+    <t>Régimes alimentaires et nutrition</t>
   </si>
   <si>
     <t>Bébé</t>
-  </si>
-  <si>
-    <t>https://deliveroo.fr/menu/Paris/Commerce/324-monoprix-convention/?day=today&amp;geohash=u09tuhh74r2x&amp;time=ASAP&amp;category_id=%23AISLE-%23MAISON_LOISIRS&amp;source=categories_tab&amp;linked_request_uuid=0d741622-f219-496a-b376-39be27bed151</t>
-  </si>
-  <si>
-    <t>Maison &amp; Loisirs</t>
-  </si>
-  <si>
-    <t>category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -231,12 +94,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -568,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -581,250 +462,71 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>